--- a/experiments/optics-ajk/instructor-xl/0.3/prediction.xlsx
+++ b/experiments/optics-ajk/instructor-xl/0.3/prediction.xlsx
@@ -458,47 +458,47 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
+          <t>A passenger aircraft is nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
+          <t>AE Locked. Metering disabled</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Fly with caution</t>
+          <t>APAS has been enabled</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A passenger aircraft is nearby. Fly with caution</t>
+          <t>API Automatic Return Home</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Abnormal compass function or GPS signal detected. Aircraft switched to ATTI mode</t>
+          <t>API Automatic Takeoff</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Accelerator is Over Range</t>
+          <t>Abnormal compass function or GPS signal detected. Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
+          <t>Accelerator is Over Range</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Cannot find subject</t>
+          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -538,17 +538,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
+          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Paused</t>
+          <t>ActiveTrack Flight Ended: Cannot find subject</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AE Locked. Metering disabled</t>
+          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
+          <t>ActiveTrack Flight Paused</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -578,27 +578,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
+          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
+          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
+          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -608,57 +608,57 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
+          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
+          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Aircraft is now following you.</t>
+          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-1</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Aircraft is too far away</t>
+          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-1</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
+          <t>Aircraft Core Board Overheated</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
+          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -668,17 +668,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
+          <t>Aircraft GPS signal too weak. Home Point not updated</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Aircraft out of Range</t>
+          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient. Fly with caution</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -698,27 +698,27 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
+          <t>Aircraft battery level low. Return to home promptly</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Aircraft settings updated to comply with national regulations</t>
+          <t>Aircraft close to Home Point. go home shifts to landing.</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-1</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Aircraft switched to ATTI mode</t>
+          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -728,187 +728,187 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error. Restart aircraft</t>
+          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-1</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Aircraft flight control locked</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Aircraft will automatically descend in nnn</t>
+          <t>Aircraft flight control obtained by remote controller A</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
+          <t>Aircraft flight control obtained by remote controller B</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
+          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
+          <t>Aircraft flight control unlocked</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>APAS has been enabled</t>
+          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>API Automatic Takeoff</t>
+          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
+          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Attitude is too large.</t>
+          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Away and Follow in progress.</t>
+          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Aircraft in high interference environment. Fly with caution</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Barometer Dead in Air</t>
+          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Barometer initialization failed. Restart aircraft</t>
+          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-1</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Battery cell broken, please replace the battery</t>
+          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-1</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Battery cells undervoltage</t>
+          <t>Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
+          <t>Aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-1</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Battery error. Aircraft returning to home automatically</t>
+          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Battery nnn requires maintenance</t>
+          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -918,27 +918,27 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
+          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-1</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
+          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-1</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Battery temperature too low. Fly with caution</t>
+          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Battery Voltage Difference too large. Check Battery Status</t>
+          <t>Aircraft is now following you.</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -958,87 +958,87 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Battery: Low Voltage Protection</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Battery: Overcurrent During Discharge</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Camera busy, cannot enter playback</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Camera error. AI Spot-Check failed. Restart camera</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Camera storage full</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
+          <t>Aircraft is returning to the starting point</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-1</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Cannot Enter TapFly Cannot fly in that direction</t>
+          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-1</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Aircraft is too far away</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Cannot enter the selected flight mode. Try again later.</t>
+          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Cannot start Self-Timer. Exposure time is too long</t>
+          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Cannot takeoff in a no-fly zone</t>
+          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Compass error, calibration required</t>
+          <t>Aircraft out of Range</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1088,17 +1088,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
+          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-1</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
+          <t>Aircraft power insufficient. Fly with caution</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1108,27 +1108,27 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Current elevation above nnn. Fly with caution</t>
+          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-1</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Detecting subject</t>
+          <t>Aircraft processor overheated. Automatically returning to home</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-1</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Disable SD card read and write protection or change card</t>
+          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Distance limit enabled. Fly safely</t>
+          <t>Aircraft settings updated to comply with national regulations</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Downlink data connection lost for nnn seconds</t>
+          <t>Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Downlink Lost.</t>
+          <t>Aircraft takeoff altitude error. Restart aircraft</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1168,17 +1168,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.5s).</t>
+          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-1</v>
+        <v>118</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.6s).</t>
+          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.7s).</t>
+          <t>Aircraft will automatically descend in nnn</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1198,37 +1198,37 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11s).</t>
+          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.6s).</t>
+          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-1</v>
+        <v>118</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.8s).</t>
+          <t>Altitude Zone nnn</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Downward infrared sensor failure. Land as soon as possible</t>
+          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1238,57 +1238,57 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
+          <t>Ambient Light is too weak.</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
+          <t>Ambient Light too Weak</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>EMMC is full</t>
+          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-1</v>
+        <v>85</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Ensure control sticks are centered during takeoff</t>
+          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-1</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
+          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-1</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
+          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1298,37 +1298,37 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
+          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Exiting GPS mode: Unknown Error</t>
+          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
+          <t>Another aircraft is nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Flight control mode error, cannot start recording QuickShot</t>
+          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1338,67 +1338,67 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Flight height too low</t>
+          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-1</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
+          <t>Arrived at End Point</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-1</v>
+        <v>150</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
+          <t>Arrived at Start Point. Starting Waypoint Mission</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-1</v>
+        <v>148</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Gimbal calibrating</t>
+          <t>Arrived at destination</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-1</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>GPS Position Mismatch.</t>
+          <t>At Least Two Waypoints Required</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-1</v>
+        <v>147</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>At least two Waypoints are needed</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-1</v>
+        <v>147</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Ground Plain. Safe to Land.</t>
+          <t>Attitude is too large.</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1408,97 +1408,97 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed. Restart aircraft</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-1</v>
+        <v>89</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Home Point Recorded. RTH Altitude : 30m.</t>
+          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-1</v>
+        <v>89</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Image transmission signal lost</t>
+          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-1</v>
+        <v>89</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>IMU attitude restricted. Ensure aircraft is level</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-1</v>
+        <v>89</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>IMU warming up. Wait before taking off</t>
+          <t>Auto Landing in nnn(s)</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-1</v>
+        <v>111</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>In Flight.</t>
+          <t>Auto landing initiated</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-1</v>
+        <v>111</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
+          <t>Auxiliary Bottom Light set to automatic mode</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-1</v>
+        <v>155</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
+          <t>Auxiliary Bottom Light turned off</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-1</v>
+        <v>155</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Landing gear function restored</t>
+          <t>Auxiliary Bottom Light turned on</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-1</v>
+        <v>155</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Landing Gear Paused.</t>
+          <t>Away and Follow in progress.</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1508,37 +1508,37 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
+          <t>Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-1</v>
+        <v>84</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Landing.</t>
+          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-1</v>
+        <v>85</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Large Wind Velocity.</t>
+          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-1</v>
+        <v>88</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Lens not connected</t>
+          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1548,7 +1548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
+          <t>Barometer Dead in Air</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1558,7 +1558,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Loading database failed. Geo-awareness function degraded</t>
+          <t>Barometer initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1568,27 +1568,27 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
+          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
+          <t>Battery Signal Error. Check battery connection.</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
+          <t>Battery Voltage Difference too large. Check Battery Status</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
+          <t>Battery cell broken, please replace the battery</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Motor nnn stalled. Land aircraft immediately</t>
+          <t>Battery cells undervoltage</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Motor unable to rotate. Check motor</t>
+          <t>Battery error. Aircraft returning to home automatically</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -1638,27 +1638,27 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Motors Started.</t>
+          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
+          <t>Battery level low. Charge battery</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Not Enough Force/ESC Error</t>
+          <t>Battery nnn requires maintenance</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -1668,27 +1668,27 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance will be disabled in landing.</t>
+          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Obstacle Avoided. Revise Flight Route</t>
+          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-1</v>
+        <v>83</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
+          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -1698,17 +1698,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
+          <t>Battery power low. Check battery status and charge or warm up battery</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>PalmControl in Process</t>
+          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -1718,17 +1718,17 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Pano shooting completed. The sky part is filled automatically</t>
+          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
+          <t>Battery temperature too low. Fly with caution</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -1738,7 +1738,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Propellers not installed</t>
+          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -1748,17 +1748,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Remote controller assisted takeoff initiated.</t>
+          <t>Battery: Connection Error</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Remote controller signal weak. Adjust remote controller antennas</t>
+          <t>Battery: Low Voltage Protection</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -1768,7 +1768,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
+          <t>Battery: Overcurrent During Discharge</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -1778,117 +1778,117 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Remote ID functionality normal</t>
+          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>-1</v>
+        <v>146</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>RTH : Cruise.</t>
+          <t>Braking now! Return sticks to midpoints first.</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-1</v>
+        <v>146</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>RTH : Heading alignment.</t>
+          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-1</v>
+        <v>146</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
+          <t>Cache Space Full</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-1</v>
+        <v>135</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
+          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>-1</v>
+        <v>115</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Running Flight Simulator. Restart aircraft to take off</t>
+          <t>Calibration target not far away enough. Please calibrate using infinity</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-1</v>
+        <v>115</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Satellite positioning off. Fly with Caution.</t>
+          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
+          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Sensing system is blocked or too close to the obstacle.</t>
+          <t>Camera Settings ActiveTrack Optimized</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-1</v>
+        <v>139</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Set Flight Mode to GPS to fly safe</t>
+          <t>Camera Settings Adjusted</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-1</v>
+        <v>139</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Signal Lost. Aircraft returning to Home Point</t>
+          <t>Camera Settings Adjusted to ActiveTrack</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-1</v>
+        <v>139</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Starting Smart Track</t>
+          <t>Camera busy, cannot enter playback</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -1898,7 +1898,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Strong Aircraft Interference</t>
+          <t>Camera error. AI Spot-Check failed. Restart camera</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -1908,27 +1908,27 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
+          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Take off and retry this function.</t>
+          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Taking Off.</t>
+          <t>Camera storage full</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -1938,27 +1938,27 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
+          <t>Cancel Landing Failed</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-1</v>
+        <v>105</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Tap to choose a valid zone.</t>
+          <t>Cancel Return-to-Home Failed</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
+          <t>Cannot Enter TapFly Cannot fly in that direction</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -1968,47 +1968,47 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Upward Obstacle Detected</t>
+          <t>Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-1</v>
+        <v>91</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked. Fly with caution</t>
+          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>-1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate. Fly with caution</t>
+          <t>Cannot Track Subject. Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>-1</v>
+        <v>91</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Warning</t>
+          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-1</v>
+        <v>102</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
+          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -2018,17 +2018,17 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Warning: Motor Obstructed</t>
+          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
+          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -2038,7 +2038,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Yaw Error.</t>
+          <t>Cannot enter the selected flight mode. Try again later.</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -2048,4221 +2048,4221 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Your aircraft has entered a Warning Zone (Class D). Please fly with caution.</t>
+          <t>Cannot exit ActiveTrack</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>-1</v>
+        <v>142</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Authorization Zone. Please fly away with caution</t>
+          <t>Cannot send ActiveTrack command</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>-1</v>
+        <v>142</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
+          <t>Cannot start Return to Home due to weak GPS signal</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
+          <t>Cannot start Self-Timer. Exposure time is too long</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>33</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Aircraft is entering a restricted area</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>33</v>
+        <v>102</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Image Transmission Recovered. Aircraft is returning home.</t>
+          <t>Cannot takeoff in a no-fly zone</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>106</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
+          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>132</v>
+        <v>45</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>132</v>
+        <v>84</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
+          <t>Cannot track subject: Gimbal Tilt too Large</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>133</v>
+        <v>99</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
+          <t>Cannot track subject: No image. Please retry</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Aircraft battery level low. Return to home promptly</t>
+          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>34</v>
+        <v>99</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft returning to home</t>
+          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>34</v>
+        <v>98</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Aircraft close to Home Point. go home shifts to landing.</t>
+          <t>Capture Failed Cannot enter Pano mode</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>76</v>
+        <v>129</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
+          <t>Capture Failed Shooting interrupted</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>76</v>
+        <v>131</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
+          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>76</v>
+        <v>128</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Aircraft Core Board Overheated</t>
+          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>83</v>
+        <v>129</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
+          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>83</v>
+        <v>129</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Aircraft processor overheated. Automatically returning to home</t>
+          <t>Capture Failed. Shooting is currently not permitted</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>83</v>
+        <v>131</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
+          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>83</v>
+        <v>128</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
+          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Exited Hyperlapse mode</t>
+          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>120</v>
+        <v>46</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Aircraft flight control locked</t>
+          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Aircraft flight control unlocked</t>
+          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>57</v>
+        <v>156</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller A</t>
+          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>56</v>
+        <v>156</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller B</t>
+          <t>Command Failed</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>56</v>
+        <v>143</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
+          <t>Command Timeout</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>56</v>
+        <v>144</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak. Home Point not updated</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>13</v>
+        <v>64</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Cannot start Return to Home due to weak GPS signal</t>
+          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>13</v>
+        <v>66</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Compass Error. Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>27</v>
+        <v>64</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Altitude Zone nnn</t>
+          <t>Compass Error. Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>27</v>
+        <v>68</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone. Please fly away or land with caution</t>
+          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>27</v>
+        <v>64</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Your aircraft is flying in an Altitude Zone (nnn). Please fly with caution</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>27</v>
+        <v>66</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
+          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>14</v>
+        <v>66</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
+          <t>Compass Error. Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>14</v>
+        <v>69</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
+          <t>Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
+          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>32</v>
+        <v>63</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
+          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>32</v>
+        <v>62</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Fly with caution</t>
+          <t>Compass Error. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>2</v>
+        <v>65</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Strong Interference Detected. Be careful when flying long distances.</t>
+          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>2</v>
+        <v>65</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Strong Interference Now. Fly with caution.</t>
+          <t>Compass Interference. Temp Max Altitude : 98ft</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>2</v>
+        <v>101</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
+          <t>Compass Interference. Temp Max Altitude: nnn</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>2</v>
+        <v>101</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
+          <t>Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>2</v>
+        <v>68</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Strong Interference. Fly with caution.</t>
+          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>4</v>
+        <v>61</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>4</v>
+        <v>66</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Aircraft is flying back to the start point</t>
+          <t>Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>114</v>
+        <v>69</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the starting point</t>
+          <t>Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>114</v>
+        <v>63</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>The aircraft is flying back to the start point</t>
+          <t>Compass error, calibration required</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>114</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
+          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>107</v>
+        <v>61</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Switched to S (Sport)-mode.</t>
+          <t>Compass initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>107</v>
+        <v>74</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
+          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>107</v>
+        <v>62</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
+          <t>Correcting Landing Position</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Switched to P (Positioning)-mode.</t>
+          <t>Critical Low Battery</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>127</v>
+        <v>36</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Switched to T (Tripod)-mode.</t>
+          <t>Critical low battery voltage</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>127</v>
+        <v>36</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Critical low battery. Aircraft landing automatically</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Critical low battery. Aircraft returning to home</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Critical low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Critical low battery. Return to home or land promptly</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Critical low battery. Unable to take off. Recharge promptly</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
+          <t>Critically Low Power. Aircraft Landing</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>110</v>
+        <v>38</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
+          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>110</v>
+        <v>38</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
+          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>118</v>
+        <v>37</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
+          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>118</v>
+        <v>37</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
+          <t>Critically Low Voltage. Aircraft will land</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>103</v>
+        <v>37</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed</t>
+          <t>Critically low power. Aircraft is landing</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>103</v>
+        <v>38</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
+          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>103</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak.</t>
+          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>90</v>
+        <v>108</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak</t>
+          <t>Current elevation above nnn. Fly with caution</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>90</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
+          <t>Data Recorder File Index is 12.</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Data Recorder File Index is 13.</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Data Recorder File Index is 15.</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>85</v>
+        <v>48</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Data Recorder File Index is 17.</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>85</v>
+        <v>48</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Data Recorder File Index is 18.</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>85</v>
+        <v>48</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>API Automatic Return Home</t>
+          <t>Data Recorder File Index is 19.</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Returning to the Home Point</t>
+          <t>Data Recorder File Index is 2.</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
+          <t>Data Recorder File Index is 21.</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>108</v>
+        <v>48</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
+          <t>Data Recorder File Index is 29.</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>108</v>
+        <v>49</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Arrived at destination</t>
+          <t>Data Recorder File Index is 3.</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>150</v>
+        <v>52</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Arrived at End Point</t>
+          <t>Data Recorder File Index is 30.</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>150</v>
+        <v>49</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Arrived at Start Point. Starting Waypoint Mission</t>
+          <t>Data Recorder File Index is 4.</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>148</v>
+        <v>52</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Executing waypoint mission</t>
+          <t>Data Recorder File Index is 45.</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>148</v>
+        <v>47</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Waypoint Mission Start</t>
+          <t>Data Recorder File Index is 46.</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>148</v>
+        <v>47</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>At least two Waypoints are needed</t>
+          <t>Data Recorder File Index is 5.</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>147</v>
+        <v>52</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>At Least Two Waypoints Required</t>
+          <t>Data Recorder File Index is 57.</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>147</v>
+        <v>47</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Min Waypoint Distance: nnn</t>
+          <t>Data Recorder File Index is 65.</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>147</v>
+        <v>47</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
+          <t>Data Recorder File Index is 7.</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>89</v>
+        <v>51</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
+          <t>Data Recorder File Index is 8.</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>89</v>
+        <v>51</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
+          <t>Descending. Exited Visual Avoidance System</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>89</v>
+        <v>140</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
+          <t>Detecting subject</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>89</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Auto Landing in nnn(s)</t>
+          <t>Disable SD card read and write protection or change card</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>111</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Auto landing initiated</t>
+          <t>Distance limit enabled. Fly safely</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>111</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light set to automatic mode</t>
+          <t>Downlink Lost.</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>155</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned off</t>
+          <t>Downlink Restored (after 0m 0.9s).</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>155</v>
+        <v>121</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned on</t>
+          <t>Downlink Restored (after 0m 1.1s).</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>155</v>
+        <v>124</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Downlink Restored (after 0m 1.2s).</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>88</v>
+        <v>124</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Downlink Restored (after 0m 1.4s).</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>88</v>
+        <v>124</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Downlink Restored (after 0m 1.5s).</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>88</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning.</t>
+          <t>Downlink Restored (after 0m 1.6s).</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>84</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
+          <t>Downlink Restored (after 0m 1.7s).</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>84</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning.</t>
+          <t>Downlink Restored (after 0m 11.3s).</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>84</v>
+        <v>122</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Responding</t>
+          <t>Downlink Restored (after 0m 11s).</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>84</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Working.</t>
+          <t>Downlink Restored (after 0m 1s).</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>84</v>
+        <v>121</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
+          <t>Downlink Restored (after 0m 2.2s).</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>43</v>
+        <v>123</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
+          <t>Downlink Restored (after 0m 2.3s).</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>43</v>
+        <v>123</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
+          <t>Downlink Restored (after 0m 2.9s).</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>43</v>
+        <v>122</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Battery level low. Charge battery</t>
+          <t>Downlink Restored (after 0m 5.6s).</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>36</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Battery power low. Check battery status and charge or warm up battery</t>
+          <t>Downlink Restored (after 0m 5.8s).</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>36</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Critical Low Battery</t>
+          <t>Downlink data connection lost for nnn seconds</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>36</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Critical low battery voltage</t>
+          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>36</v>
+        <v>86</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Critical low battery. Recharge promptly</t>
+          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>36</v>
+        <v>72</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Critical low battery. Unable to take off. Recharge promptly</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>36</v>
+        <v>88</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Low battery voltage. Fly with caution</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>36</v>
+        <v>88</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Low battery. Recharge promptly</t>
+          <t>Downward infrared sensor failure. Land as soon as possible</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>36</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Low power, please replace the battery</t>
+          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>36</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>36</v>
+        <v>73</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Remote controller battery level low. Recharge promptly</t>
+          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>36</v>
+        <v>72</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Warning: Critically low battery. Please change the battery</t>
+          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>36</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Battery Signal Error. Check battery connection.</t>
+          <t>Drone is Vibrating</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>44</v>
+        <v>125</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Battery: Connection Error</t>
+          <t>During Smart Track, you can control lens zoom within a certain limit</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>44</v>
+        <v>151</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
+          <t>EMMC is full</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>42</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
+          <t>Ensure control sticks are centered during takeoff</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>42</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
+          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Braking now! Return sticks to midpoints first.</t>
+          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>146</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
+          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>146</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Cache Space Full</t>
+          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
+          <t>Executing waypoint mission</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
+          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>115</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Calibration target not far away enough. Please calibrate using infinity</t>
+          <t>Exited Cruise Control mode</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>115</v>
+        <v>152</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
+          <t>Exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>71</v>
+        <v>120</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
+          <t>Exited Visual Avoidance System.</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>71</v>
+        <v>140</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Exiting GPS mode: Unknown Error</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>75</v>
+        <v>104</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Camera Settings ActiveTrack Optimized</t>
+          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>139</v>
+        <v>94</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted</t>
+          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>139</v>
+        <v>92</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted to ActiveTrack</t>
+          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>139</v>
+        <v>92</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Cancel Landing Failed</t>
+          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Failed to cancel landing</t>
+          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Landing Canceled.</t>
+          <t>Failed to cancel Return to Home</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>105</v>
+        <v>19</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Cancel Return-to-Home Failed</t>
+          <t>Failed to cancel landing</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>19</v>
+        <v>105</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Failed to cancel Return to Home</t>
+          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>19</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
+          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>102</v>
+        <v>46</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
+          <t>File system error. Change SD card</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>102</v>
+        <v>137</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
+          <t>Flight Mode Set to Attitude</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>102</v>
+        <v>58</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Cannot exit ActiveTrack</t>
+          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>142</v>
+        <v>60</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Cannot send ActiveTrack command</t>
+          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>142</v>
+        <v>60</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Cannot Identify Subject</t>
+          <t>Flight control mode error, cannot start recording QuickShot</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>91</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Cannot Track Subject. Cannot Identify Subject</t>
+          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Cannot track subject: No image. Please retry</t>
+          <t>Flight height too low</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>91</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
+          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>45</v>
+        <v>104</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
+          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Unable to take off</t>
+          <t>Forward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>45</v>
+        <v>84</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Cannot track subject: Gimbal Tilt too Large</t>
+          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
+          <t>Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Subject too Large. Move Away and retry</t>
+          <t>Forward Obstacle Sensing not Working.</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
+          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Subject too Small. Get Closer and retry</t>
+          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Capture Failed Cannot enter Pano mode</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>129</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>129</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
+          <t>GPS Position Mismatch.</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>129</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Capture Failed Shooting interrupted</t>
+          <t>GPS module error. Restart aircraft</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>131</v>
+        <v>74</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Capture Failed. Shooting is currently not permitted</t>
+          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>131</v>
+        <v>15</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
+          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>128</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
+          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>128</v>
+        <v>12</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
+          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>128</v>
+        <v>12</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
+          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>46</v>
+        <v>70</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
+          <t>Gimbal Pitch Limit Reached.</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>46</v>
+        <v>117</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
+          <t>Gimbal Pitch Reached Movement Limit</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>46</v>
+        <v>117</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
+          <t>Gimbal Recenter</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>46</v>
+        <v>109</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Gimbal Roll Limit Reached.</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>156</v>
+        <v>117</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Gimbal Yaw Limit Reached</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>156</v>
+        <v>117</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Command Failed</t>
+          <t>Gimbal calibrating</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>143</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Warning: Command Failed</t>
+          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>143</v>
+        <v>70</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Command Timeout</t>
+          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>144</v>
+        <v>125</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Warning: Command Timeout</t>
+          <t>Gimbal nnn pan axis endpoint reached</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>144</v>
+        <v>116</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
+          <t>Gimbal nnn pitch axis endpoint reached</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>61</v>
+        <v>116</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
+          <t>Gimbal nnn roll axis endpoint reached</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>61</v>
+        <v>116</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
+          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>61</v>
+        <v>125</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Compass data error. Please contact DJI Support</t>
+          <t>Ground Plain. Safe to Land.</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>66</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Gyroscope initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>66</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
+          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>66</v>
+        <v>18</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Compass direction is not the same with IMU</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>69</v>
+        <v>18</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Compass Error. Compass direction is not the same with IMU</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>69</v>
+        <v>18</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>64</v>
+        <v>18</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
+          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>64</v>
+        <v>18</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Compass Error. Compass disconnected</t>
+          <t>High wind velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>64</v>
+        <v>17</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass disconnected</t>
+          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>64</v>
+        <v>82</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>63</v>
+        <v>22</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>63</v>
+        <v>22</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Home Point Recorded.</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Home Point Recorded. RTH Altitude : 30m.</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>62</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Redundancy Switch</t>
+          <t>Home Point Recorded. Taking off.</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>68</v>
+        <v>31</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Compass Redundancy Switch</t>
+          <t>Home Point Updated.</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>68</v>
+        <v>31</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Compass Error. Exit P-GPS Mode</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>65</v>
+        <v>21</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>65</v>
+        <v>21</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Compass initialization failed. Restart aircraft</t>
+          <t>Home Point updated. RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>74</v>
+        <v>24</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>GPS module error. Restart aircraft</t>
+          <t>IMU attitude restricted. Ensure aircraft is level</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>74</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Navigation system error. Restart aircraft</t>
+          <t>IMU calibration required. Calibrate IMU</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>74</v>
+        <v>134</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude : 98ft</t>
+          <t>IMU not calibrated. Calibrate IMU</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>101</v>
+        <v>134</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude: nnn</t>
+          <t>IMU warming up. Wait before taking off</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>101</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Correcting Landing Position</t>
+          <t>Image Transmission Recovered. Aircraft is returning home.</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Precision Landing. Correcting Landing Position.</t>
+          <t>Image transmission signal lost</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>113</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Precision Landing. Rectifying aircraft position.</t>
+          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Rectifying aircraft position</t>
+          <t>Impact detected. Restart aircraft</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
+          <t>In Flight.</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>39</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft landing automatically</t>
+          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>39</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Critical low battery. Return to home or land promptly</t>
+          <t>Insufficient SD card space. Change card or delete files</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>35</v>
+        <v>136</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Low battery. Return to home promptly</t>
+          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>35</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Critically low power. Aircraft is landing</t>
+          <t>Landing Canceled.</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>38</v>
+        <v>105</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing</t>
+          <t>Landing Gear Lowered.</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
+          <t>Landing Gear Lowering.</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
+          <t>Landing Gear Paused.</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>37</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
+          <t>Landing Gear Raised.</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Critically Low Voltage. Aircraft will land</t>
+          <t>Landing Gear Raising.</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 12.</t>
+          <t>Landing Gear Raising. Home Point Recorded</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 13.</t>
+          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>50</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 15.</t>
+          <t>Landing gear function restored</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>48</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 17.</t>
+          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 18.</t>
+          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 19.</t>
+          <t>Landing.</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>48</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 21.</t>
+          <t>Large Wind Velocity.</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>48</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 2.</t>
+          <t>Large Wind Velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>52</v>
+        <v>17</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 3.</t>
+          <t>Lens not connected</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>52</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 4.</t>
+          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>52</v>
+        <v>87</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 5.</t>
+          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>52</v>
+        <v>87</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 29.</t>
+          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>49</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 30.</t>
+          <t>Loading database failed. Geo-awareness function degraded</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>49</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 45.</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>47</v>
+        <v>112</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 46.</t>
+          <t>Low Power. Aircraft is returning to the Home Point.</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 57.</t>
+          <t>Low Power. Returning home.</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 65.</t>
+          <t>Low battery voltage. Fly with caution</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 7.</t>
+          <t>Low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 8.</t>
+          <t>Low battery. Return to home promptly</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Descending. Exited Visual Avoidance System</t>
+          <t>Low power, please replace the battery</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>140</v>
+        <v>36</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Exited Visual Avoidance System.</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>140</v>
+        <v>67</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 0.9s).</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>121</v>
+        <v>67</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1s).</t>
+          <t>Manned aircraft approaching. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>121</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.1s).</t>
+          <t>Manned aircraft detected nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>124</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.2s).</t>
+          <t>Manned aircraft too close. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>124</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.4s).</t>
+          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>124</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11.3s).</t>
+          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>122</v>
+        <v>29</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.9s).</t>
+          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>122</v>
+        <v>30</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.2s).</t>
+          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>123</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.3s).</t>
+          <t>Maximum Flight Altitude Reached.</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>123</v>
+        <v>28</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
+          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>72</v>
+        <v>29</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
+          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
+          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Vision sensor error. Contact DJI Support for assistance</t>
+          <t>Min Waypoint Distance: nnn</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>72</v>
+        <v>147</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>86</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>86</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
+          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
+          <t>Motor error. Check propellers and fly with caution</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Drone is Vibrating</t>
+          <t>Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>125</v>
+        <v>78</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
+          <t>Motor is Blocked</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>125</v>
+        <v>79</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
+          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>125</v>
+        <v>79</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
+          <t>Motor is idling (lost or missing propeller)</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>125</v>
+        <v>78</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>During Smart Track, you can control lens zoom within a certain limit</t>
+          <t>Motor nnn propeller detached or installed incorrectly</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>151</v>
+        <v>77</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
+          <t>Motor nnn stalled. Land aircraft immediately</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>151</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
+          <t>Motor or propeller error. Check the motors and propellers.</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>151</v>
+        <v>77</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
+          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>152</v>
+        <v>81</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Exited Cruise Control mode</t>
+          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>152</v>
+        <v>79</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
+          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>104</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
+          <t>Motor unable to rotate. Check motor</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>104</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
+          <t>Motors Started.</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>104</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>Navigation system error. Restart aircraft</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>94</v>
+        <v>74</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>94</v>
+        <v>11</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
+          <t>No GPS signal. Unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>92</v>
+        <v>11</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>92</v>
+        <v>15</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>No SD card. Insert card</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>95</v>
+        <v>137</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>Not Allowed to change Aircraft Mode. If needed</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>File system error. Change SD card</t>
+          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>137</v>
+        <v>103</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>No SD card. Insert card</t>
+          <t>Not Enough Force/ESC Error</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>137</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>SD card malfunction. Change card</t>
+          <t>Object too close to laser rangefinder</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>SD card speed low. Change card</t>
+          <t>Object too far for laser rangefinder</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
+          <t>Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
+          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>60</v>
+        <v>6</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Flight Mode Set to Attitude</t>
+          <t>Obstacle Avoidance disabled. Fly with caution</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>58</v>
+        <v>8</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Switched to A (Attitude)-mode</t>
+          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>58</v>
+        <v>6</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
+          <t>Obstacle Avoidance will be disabled in landing.</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>70</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
+          <t>Obstacle Avoided. Revise Flight Route</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>70</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Gimbal nnn pan axis endpoint reached</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>116</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Gimbal nnn pitch axis endpoint reached</t>
+          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>116</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Gimbal nnn roll axis endpoint reached</t>
+          <t>PalmControl in Process</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>116</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Limit Reached.</t>
+          <t>Pano shooting completed. The sky part is filled automatically</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>117</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Reached Movement Limit</t>
+          <t>Pano successful</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Gimbal Roll Limit Reached.</t>
+          <t>Panorama Captured Successfully</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Gimbal Yaw Limit Reached</t>
+          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>117</v>
+        <v>93</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Gimbal Recenter</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Recenter Gimbal Pan</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
+          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>15</v>
+        <v>112</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
+          <t>Precision Landing. Correcting Landing Position.</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>15</v>
+        <v>113</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
+          <t>Precision Landing. Locating Landing Point</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>12</v>
+        <v>112</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
+          <t>Precision Landing. Rectifying aircraft position.</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>12</v>
+        <v>113</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
+          <t>Propeller Fell Off</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>12</v>
+        <v>78</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
+          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>12</v>
+        <v>78</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
+          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>82</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
+          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
+          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>18</v>
+        <v>81</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
+          <t>Propellers not installed</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>18</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>Propulsion output has been limited to ensure battery health.</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>QuickShot has ended</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>18</v>
+        <v>141</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
+          <t>RTH : Ascending to RTH altitude.</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution.</t>
+          <t>RTH : Cruise.</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>17</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Large Wind Velocity. Fly with caution.</t>
+          <t>RTH : Heading alignment.</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>17</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Strong wind. Fly with caution</t>
+          <t>RTH : Preascending.</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
+          <t>RTH Altitude : 65FT.</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
+          <t>RTH Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Home Point Recorded.</t>
+          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>31</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Home Point Recorded. Taking off.</t>
+          <t>RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Home Point Updated.</t>
+          <t>RTK Base Station Data Not Received</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>31</v>
+        <v>153</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
+          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>21</v>
+        <v>153</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
+          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>21</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Home Point updated. RTH altitude adjusted to nnn</t>
+          <t>Reaching maximum altitude...</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>RTH altitude adjusted to nnn</t>
+          <t>Recenter Gimbal Pan</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>24</v>
+        <v>109</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>97</v>
+        <v>36</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Impact detected. Restart aircraft</t>
+          <t>Rectifying aircraft position</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>97</v>
+        <v>113</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>IMU calibration required. Calibrate IMU</t>
+          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>IMU not calibrated. Calibrate IMU</t>
+          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>134</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Insufficient SD card space. Change card or delete files</t>
+          <t>Remote ID functionality normal</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>136</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>SD card full. Change card or delete files</t>
+          <t>Remote controller assisted takeoff initiated.</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>136</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Landing Gear Lowered.</t>
+          <t>Remote controller battery level low. Recharge promptly</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Landing Gear Lowering.</t>
+          <t>Remote controller disconnected from aircraft</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>Remote controller signal lost</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>7</v>
+        <v>55</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>Landing Gear Raised.</t>
+          <t>Remote controller signal weak. Adjust remote controller antennas</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Landing Gear Raising.</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>10</v>
+        <v>96</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Landing Gear Raising. Home Point Recorded</t>
+          <t>Restart aircraft and DJI Fly</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>10</v>
+        <v>96</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
+          <t>Return-to-Home Altitude : 65FT</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>87</v>
+        <v>23</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
+          <t>Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>87</v>
+        <v>23</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>112</v>
+        <v>23</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Returning to the Home Point</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>112</v>
+        <v>59</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Precision Landing. Locating Landing Point</t>
+          <t>Right Dial Locked. Lightly press to adjust.</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>112</v>
+        <v>145</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Low Power. Aircraft is returning to the Home Point.</t>
+          <t>Running Flight Simulator. Restart aircraft to take off</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>41</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Low Power. Returning home.</t>
+          <t>SD card full. Change card or delete files</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>41</v>
+        <v>136</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>SD card malfunction. Change card</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>67</v>
+        <v>137</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
+          <t>SD card speed low. Change card</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>67</v>
+        <v>137</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Manned aircraft approaching. Fly at a safe altitude</t>
+          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Manned aircraft detected nearby. Fly with caution</t>
+          <t>Satellite positioning off. Fly with Caution.</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Manned aircraft too close. Fly at a safe altitude</t>
+          <t>Sensing system is blocked or too close to the obstacle.</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Set Flight Mode to GPS to fly safe</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>29</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
+          <t>Setting new Maximum Flight Altitude to nnn</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Setting new Return-To-Home altitude to nnn</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
+          <t>Signal Lost. Aircraft returning to Home Point</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>30</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
+          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>30</v>
+        <v>157</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
+          <t>Sprayer turned ON</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>30</v>
+        <v>157</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached.</t>
+          <t>Starting Smart Track</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>28</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Reaching maximum altitude...</t>
+          <t>Strong Aircraft Interference</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>28</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Setting new Maximum Flight Altitude to nnn</t>
+          <t>Strong Interference Detected. Be careful when flying long distances.</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Motor error. Check propellers and fly with caution</t>
+          <t>Strong Interference Now. Fly with caution.</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>77</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Motor nnn propeller detached or installed incorrectly</t>
+          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>77</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Motor or propeller error. Check the motors and propellers.</t>
+          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>77</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Motor idle. Check whether propellers are installed</t>
+          <t>Strong Interference. Fly with caution.</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>78</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Motor is idling (lost or missing propeller)</t>
+          <t>Strong Remote Controller Interference</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>78</v>
+        <v>3</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Propeller Fell Off</t>
+          <t>Strong Remote Controller Interference.</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>78</v>
+        <v>3</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
+          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Motor is Blocked</t>
+          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
+          <t>Strong wind. Fly with caution</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>Strong wireless interference. Please fly with caution.</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>79</v>
+        <v>5</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
+          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>80</v>
+        <v>5</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Propulsion output has been limited to ensure battery health.</t>
+          <t>Subject lost. Reselect subject</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>80</v>
+        <v>138</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
+          <t>Subject lost. Searching …</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>81</v>
+        <v>138</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
+          <t>Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
+          <t>Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>11</v>
+        <v>98</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to hover. Fly with caution</t>
+          <t>Switched to A (Attitude)-mode</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Object too close to laser rangefinder</t>
+          <t>Switched to P (Positioning)-mode.</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Object too far for laser rangefinder</t>
+          <t>Switched to S (Sport)-mode.</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>126</v>
+        <v>107</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled.</t>
+          <t>Switched to T (Tripod)-mode.</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>8</v>
+        <v>127</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Fly with caution</t>
+          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Vision systems and obstacle avoidance disabled</t>
+          <t>Take off and retry this function.</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Take off in P-Mode</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>Taking Off.</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>Pano successful</t>
+          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>130</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Panorama Captured Successfully</t>
+          <t>Tap the screen lightly to focus.</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>130</v>
+        <v>154</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
+          <t>Tap the screen to focus.</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>93</v>
+        <v>154</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Tap to choose a valid zone.</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>93</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
+          <t>Target lost. QuickShots stopped</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>93</v>
+        <v>141</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>QuickShot has ended</t>
+          <t>The aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>141</v>
+        <v>114</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>Target lost. QuickShots stopped</t>
+          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>141</v>
+        <v>107</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Remote controller disconnected from aircraft</t>
+          <t>The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Remote controller signal lost</t>
+          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>55</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
+          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Right Dial Locked. Lightly press to adjust.</t>
+          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Restart aircraft and DJI Fly</t>
+          <t>Unable to take off</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>96</v>
+        <v>45</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 65FT</t>
+          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT</t>
+          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT.</t>
+          <t>Upward Obstacle Detected</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>23</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>Setting new Return-To-Home altitude to nnn</t>
+          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>23</v>
+        <v>135</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>RTH : Ascending to RTH altitude.</t>
+          <t>Vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>RTH : Preascending.</t>
+          <t>Vision sensor(s) blocked. Fly with caution</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>25</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>RTH Altitude : 65FT.</t>
+          <t>Vision systems and obstacle avoidance disabled</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT.</t>
+          <t>Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>26</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received</t>
+          <t>Warning</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>153</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
+          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>153</v>
+        <v>40</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
+          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>157</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Sprayer turned ON</t>
+          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>157</v>
+        <v>42</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference</t>
+          <t>Warning: Command Failed</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>3</v>
+        <v>143</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference.</t>
+          <t>Warning: Command Timeout</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>3</v>
+        <v>144</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
+          <t>Warning: Critically low battery. Please change the battery</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution.</t>
+          <t>Warning: Motor Obstructed</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>Subject lost. Reselect subject</t>
+          <t>Waypoint Mission Paused</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Subject lost. Searching …</t>
+          <t>Waypoint Mission Resumed</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>Take off in P-Mode</t>
+          <t>Waypoint Mission Start</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>100</v>
+        <v>148</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
+          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>Tap the screen lightly to focus.</t>
+          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>154</v>
+        <v>12</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>Tap the screen to focus.</t>
+          <t>Weak image transmission signal. Adjust antennas</t>
         </is>
       </c>
       <c r="B573" t="n">
-        <v>154</v>
+        <v>54</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Weak signal. Adjust antenna and avoid signal block.</t>
         </is>
       </c>
       <c r="B574" t="n">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Weak signal. Adjust antennas</t>
         </is>
       </c>
       <c r="B575" t="n">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>Waypoint Mission Paused</t>
+          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight.</t>
         </is>
       </c>
       <c r="B576" t="n">
-        <v>149</v>
+        <v>53</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>Waypoint Mission Resumed</t>
+          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight. Downlink Lost.</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>149</v>
+        <v>53</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>Weak image transmission signal. Adjust antennas</t>
+          <t>Weak signal. Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Weak signal. Adjust antenna and avoid signal block.</t>
+          <t>Yaw Error.</t>
         </is>
       </c>
       <c r="B579" t="n">
-        <v>54</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>Weak signal. Adjust antennas</t>
+          <t>Your aircraft has entered a Warning Zone (Class D). Please fly with caution.</t>
         </is>
       </c>
       <c r="B580" t="n">
-        <v>54</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight.</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone. Please fly away or land with caution</t>
         </is>
       </c>
       <c r="B581" t="n">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight. Downlink Lost.</t>
+          <t>Your aircraft is at the boundary of an Authorization Zone. Please fly away with caution</t>
         </is>
       </c>
       <c r="B582" t="n">
-        <v>53</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>Weak signal. Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>Your aircraft is flying in an Altitude Zone (nnn). Please fly with caution</t>
         </is>
       </c>
       <c r="B583" t="n">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="584">
